--- a/metadata/metadata.xlsx
+++ b/metadata/metadata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>Source Name</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>sampletest.csv</t>
+  </si>
+  <si>
+    <t>findb</t>
+  </si>
+  <si>
+    <t>TARGET DATABASE</t>
   </si>
 </sst>
 </file>
@@ -474,47 +480,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -527,9 +545,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
